--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D37" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,49 +419,193 @@
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B3" s="1">
+        <v>1772.65</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3*1000000/1024/1024/1024</f>
+        <v>1.650908961892128</v>
+      </c>
+      <c r="E3" s="1">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1">
+        <v>166455148544</v>
+      </c>
+      <c r="G3" s="1">
+        <f>F3/1024/1024/1024</f>
+        <v>155.0234375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1872.51</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4*1000000/1024/1024/1024</f>
+        <v>1.7439108341932297</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>166455148544</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4/1024/1024/1024</f>
+        <v>155.0234375</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5" s="1">
+        <v>3914.89</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B5*1000000/2/1024/1024/1024</f>
+        <v>1.8230127170681953</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>332885131264</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/2/1024/1024/1024</f>
+        <v>155.01171875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3974.66</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6*1000000/2/1024/1024/1024</f>
+        <v>1.8508452922105789</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>332885131264</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6/2/1024/1024/1024</f>
+        <v>155.01171875</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="1">
+        <v>7966.86</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7*4/1024/1024/1024*100000</f>
+        <v>2.9678866267204285</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>665745096704</v>
+      </c>
+      <c r="G7" s="1">
+        <f>F7/4/1024/1024/1024</f>
+        <v>155.005859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>8288.1</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8*4/1024/1024/1024*100000</f>
+        <v>3.087557852268219</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1">
+        <v>665745096704</v>
+      </c>
+      <c r="G8" s="1">
+        <f>F8/4/1024/1024/1024</f>
+        <v>155.005859375</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B9" s="1">
+        <v>25907.1</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9/8/1024/1024/1024*1000000</f>
+        <v>3.0159833841025829</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2379462213632</v>
+      </c>
+      <c r="G9" s="1">
+        <f>F9/8/1024/1024/1024</f>
+        <v>277.005859375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>27800.6</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10/8/1024/1024/1024*1000000</f>
+        <v>3.236415795981884</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2379462213632</v>
+      </c>
+      <c r="G10" s="1">
+        <f>F10/8/1024/1024/1024</f>
+        <v>277.005859375</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -499,8 +643,8 @@
         <v>2763.3</v>
       </c>
       <c r="C14" s="1">
-        <f>B14/1024/1024/1024*100000</f>
-        <v>0.25735236704349518</v>
+        <f>B14/1024/1024/1024*1000000</f>
+        <v>2.5735236704349518</v>
       </c>
       <c r="D14" s="1">
         <v>23102226432</v>
@@ -520,8 +664,8 @@
         <v>2701.66</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:C21" si="0">B15/1024/1024/1024*100000</f>
-        <v>0.25161169469356537</v>
+        <f>B15/1024/1024/1024*1000000</f>
+        <v>2.5161169469356537</v>
       </c>
       <c r="D15" s="1">
         <v>23102226432</v>
@@ -544,8 +688,8 @@
         <v>5411.63</v>
       </c>
       <c r="C16" s="1">
-        <f>B16/1024/1024/1024/2*100000</f>
-        <v>0.2519986592233181</v>
+        <f>B16/1024/1024/1024/2*1000000</f>
+        <v>2.519986592233181</v>
       </c>
       <c r="D16" s="1">
         <v>46500151296</v>
@@ -565,8 +709,8 @@
         <v>5372.24</v>
       </c>
       <c r="C17" s="1">
-        <f>B17/1024/1024/1024/2*100000</f>
-        <v>0.25016441941261292</v>
+        <f>B17/1024/1024/1024/2*1000000</f>
+        <v>2.5016441941261292</v>
       </c>
       <c r="D17" s="1">
         <v>46500151296</v>
@@ -589,8 +733,8 @@
         <v>10977.1</v>
       </c>
       <c r="C18" s="1">
-        <f>B18/1024/1024/1024/4*100000</f>
-        <v>0.25558052584528923</v>
+        <f>B18/1024/1024/1024/4*1000000</f>
+        <v>2.5558052584528923</v>
       </c>
       <c r="D18" s="1">
         <v>93390372864</v>
@@ -610,8 +754,8 @@
         <v>11038.2</v>
       </c>
       <c r="C19" s="1">
-        <f>B19/1024/1024/1024/4*100000</f>
-        <v>0.25700312107801437</v>
+        <f>B19/1024/1024/1024/4*1000000</f>
+        <v>2.5700312107801437</v>
       </c>
       <c r="D19" s="1">
         <v>93390372864</v>
@@ -634,8 +778,8 @@
         <v>23917.200000000001</v>
       </c>
       <c r="C20" s="1">
-        <f>B20/1024/1024/1024/8*100000</f>
-        <v>0.27843285351991653</v>
+        <f>B20/1024/1024/1024/8*1000000</f>
+        <v>2.7843285351991653</v>
       </c>
       <c r="D20" s="1">
         <v>186801717248</v>
@@ -655,8 +799,8 @@
         <v>23928.6</v>
       </c>
       <c r="C21" s="1">
-        <f>B21/1024/1024/1024/8*100000</f>
-        <v>0.27856556698679924</v>
+        <f>B21/1024/1024/1024/8*1000000</f>
+        <v>2.7856556698679924</v>
       </c>
       <c r="D21" s="1">
         <v>186801717248</v>

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D36:D37"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,8 +533,8 @@
         <v>7966.86</v>
       </c>
       <c r="C7" s="1">
-        <f>B7*4/1024/1024/1024*100000</f>
-        <v>2.9678866267204285</v>
+        <f>B7/4/1024/1024/1024*1000000</f>
+        <v>1.8549291417002678</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -552,8 +552,8 @@
         <v>8288.1</v>
       </c>
       <c r="C8" s="1">
-        <f>B8*4/1024/1024/1024*100000</f>
-        <v>3.087557852268219</v>
+        <f>B8/4/1024/1024/1024*1000000</f>
+        <v>1.9297236576676369</v>
       </c>
       <c r="E8" s="1">
         <v>40</v>

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,21 +571,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>25907.1</v>
+        <v>18538.2</v>
       </c>
       <c r="C9" s="1">
         <f>B9/8/1024/1024/1024*1000000</f>
-        <v>3.0159833841025829</v>
+        <v>2.158130519092083</v>
       </c>
       <c r="E9" s="1">
         <v>40</v>
       </c>
       <c r="F9" s="1">
-        <v>2379462213632</v>
+        <v>1331465027584</v>
       </c>
       <c r="G9" s="1">
         <f>F9/8/1024/1024/1024</f>
-        <v>277.005859375</v>
+        <v>155.0029296875</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>enwiki</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>I/O (per ch)</t>
+  </si>
+  <si>
+    <t>proteins</t>
   </si>
 </sst>
 </file>
@@ -397,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,6 +818,35 @@
         <v>186.75399999999999</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1184051855</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2988.83</v>
+      </c>
+      <c r="C23" s="1">
+        <f>B23/A23*1000000</f>
+        <v>2.5242391094433949</v>
+      </c>
+      <c r="D23" s="1">
+        <v>25704792064</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21.709199999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>202404528128</v>
+      </c>
+      <c r="G23" s="1">
+        <v>170.94200000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,13 +961,13 @@
       <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="C29" s="3">
-        <v>2.3068534210324287</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="1">
+        <v>2.4753035977482698</v>
+      </c>
+      <c r="D29" s="1">
         <v>26</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>190</v>
       </c>
       <c r="G29"/>
@@ -1015,13 +1015,13 @@
       <c r="B32" s="1">
         <v>2</v>
       </c>
-      <c r="C32" s="3">
-        <v>2.6851161383092403</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="1">
+        <v>2.48236348852515</v>
+      </c>
+      <c r="D32" s="1">
         <v>26</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <v>191</v>
       </c>
       <c r="G32"/>
@@ -1069,13 +1069,13 @@
       <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="3">
-        <v>2.675588708370924</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="C35" s="1">
+        <v>2.61535937897861</v>
+      </c>
+      <c r="D35" s="1">
         <v>26</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="1">
         <v>192</v>
       </c>
       <c r="G35"/>
@@ -1123,13 +1123,13 @@
       <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="3">
-        <v>2.8463485650718212</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="C38" s="1">
+        <v>3.1869278755038901</v>
+      </c>
+      <c r="D38" s="1">
         <v>26</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="1">
         <v>221</v>
       </c>
       <c r="G38"/>

--- a/experiment result.xlsx
+++ b/experiment result.xlsx
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +80,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,16 +111,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,34 +458,34 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -692,34 +682,34 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -786,35 +776,35 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -914,19 +904,19 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G27"/>
@@ -943,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>2.2607594728469849</v>
+        <v>2.4586915969848602</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
@@ -980,9 +970,18 @@
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="C30" s="1">
+        <f>(C28+C29)/2</f>
+        <v>2.4669975973665652</v>
+      </c>
+      <c r="D30" s="1">
+        <f>(D28+D29)/2</f>
+        <v>26</v>
+      </c>
+      <c r="E30" s="1">
+        <f>(E28+E29)/2</f>
+        <v>190</v>
+      </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -1034,9 +1033,18 @@
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="C33" s="1">
+        <f>(C31+C32)/2</f>
+        <v>2.4363452102988901</v>
+      </c>
+      <c r="D33" s="1">
+        <f>(D31+D32)/2</f>
+        <v>26</v>
+      </c>
+      <c r="E33" s="1">
+        <f>(E31+E32)/2</f>
+        <v>191</v>
+      </c>
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -1088,9 +1096,18 @@
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="C36" s="1">
+        <f>(C34+C35)/2</f>
+        <v>2.5845603086054298</v>
+      </c>
+      <c r="D36" s="1">
+        <f>(D34+D35)/2</f>
+        <v>26</v>
+      </c>
+      <c r="E36" s="1">
+        <f>(E34+E35)/2</f>
+        <v>192</v>
+      </c>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36"/>
@@ -1105,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>2.2240914404392198</v>
+        <v>2.7311034500598899</v>
       </c>
       <c r="D37" s="1">
         <v>26</v>
@@ -1124,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>3.1869278755038901</v>
+        <v>2.8917565941810599</v>
       </c>
       <c r="D38" s="1">
         <v>26</v>
@@ -1142,6 +1159,18 @@
       <c r="B39" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C39" s="1">
+        <f>(C37+C38)/2</f>
+        <v>2.8114300221204749</v>
+      </c>
+      <c r="D39" s="1">
+        <f>(D37+D38)/2</f>
+        <v>26</v>
+      </c>
+      <c r="E39" s="1">
+        <f>(E37+E38)/2</f>
+        <v>221</v>
+      </c>
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39"/>
@@ -1149,19 +1178,19 @@
       <c r="K39"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G40"/>
@@ -1215,6 +1244,18 @@
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C43" s="1">
+        <f>(C41+C42)/2</f>
+        <v>2.5582603680860476</v>
+      </c>
+      <c r="D43" s="1">
+        <f>(D41+D42)/2</f>
+        <v>26</v>
+      </c>
+      <c r="E43" s="1">
+        <f>(E41+E42)/2</f>
+        <v>182</v>
+      </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
@@ -1222,19 +1263,19 @@
       <c r="K43"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G44"/>
@@ -1287,6 +1328,18 @@
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <f>(C45+C46)/2</f>
+        <v>2.4143026235958223</v>
+      </c>
+      <c r="D47" s="1">
+        <f>(D45+D46)/2</f>
+        <v>26</v>
+      </c>
+      <c r="E47" s="1">
+        <f>(E45+E46)/2</f>
+        <v>194</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
@@ -1319,19 +1372,19 @@
       <c r="K50"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G51"/>
@@ -1345,10 +1398,9 @@
         <v>1</v>
       </c>
       <c r="B52" s="1">
-        <v>2763.3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1">
-        <f>B52/1024/1024/1024*1000000</f>
         <v>2.5735236704349518</v>
       </c>
       <c r="D52" s="1">
@@ -1357,7 +1409,6 @@
       <c r="E52" s="1">
         <v>176</v>
       </c>
-      <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
       <c r="J52"/>
@@ -1365,10 +1416,9 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
-        <v>2701.66</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
-        <f>B53/1024/1024/1024*1000000</f>
         <v>2.5161169469356537</v>
       </c>
       <c r="D53" s="1">
@@ -1377,7 +1427,6 @@
       <c r="E53" s="1">
         <v>176</v>
       </c>
-      <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
       <c r="J53"/>
@@ -1387,7 +1436,18 @@
       <c r="B54" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G54"/>
+      <c r="C54" s="1">
+        <f>(C52+C53)/2</f>
+        <v>2.5448203086853027</v>
+      </c>
+      <c r="D54" s="1">
+        <f>(D52+D53)/2</f>
+        <v>21.515599999999999</v>
+      </c>
+      <c r="E54" s="1">
+        <f>(E52+E53)/2</f>
+        <v>176</v>
+      </c>
       <c r="H54"/>
       <c r="I54"/>
       <c r="J54"/>
@@ -1398,10 +1458,9 @@
         <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>5411.63</v>
+        <v>1</v>
       </c>
       <c r="C55" s="1">
-        <f>B55/1024/1024/1024/2*1000000</f>
         <v>2.519986592233181</v>
       </c>
       <c r="D55" s="1">
@@ -1410,7 +1469,6 @@
       <c r="E55" s="1">
         <v>171</v>
       </c>
-      <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
       <c r="J55"/>
@@ -1418,10 +1476,9 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
-        <v>5372.24</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
-        <f>B56/1024/1024/1024/2*1000000</f>
         <v>2.5016441941261292</v>
       </c>
       <c r="D56" s="1">
@@ -1430,7 +1487,6 @@
       <c r="E56" s="1">
         <v>171</v>
       </c>
-      <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
       <c r="J56"/>
@@ -1440,7 +1496,18 @@
       <c r="B57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G57"/>
+      <c r="C57" s="1">
+        <f>(C55+C56)/2</f>
+        <v>2.5108153931796551</v>
+      </c>
+      <c r="D57" s="1">
+        <f>(D55+D56)/2</f>
+        <v>21.653300000000002</v>
+      </c>
+      <c r="E57" s="1">
+        <f>(E55+E56)/2</f>
+        <v>171</v>
+      </c>
       <c r="H57"/>
       <c r="I57"/>
       <c r="J57"/>
@@ -1451,10 +1518,9 @@
         <v>3</v>
       </c>
       <c r="B58" s="1">
-        <v>10977.1</v>
+        <v>1</v>
       </c>
       <c r="C58" s="1">
-        <f>B58/1024/1024/1024/4*1000000</f>
         <v>2.5558052584528923</v>
       </c>
       <c r="D58" s="1">
@@ -1463,7 +1529,6 @@
       <c r="E58" s="1">
         <v>168</v>
       </c>
-      <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58"/>
@@ -1471,10 +1536,9 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
-        <v>11038.2</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
-        <f>B59/1024/1024/1024/4*1000000</f>
         <v>2.5700312107801437</v>
       </c>
       <c r="D59" s="1">
@@ -1483,7 +1547,6 @@
       <c r="E59" s="1">
         <v>168</v>
       </c>
-      <c r="G59"/>
       <c r="H59"/>
       <c r="I59"/>
       <c r="J59"/>
@@ -1493,7 +1556,18 @@
       <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G60"/>
+      <c r="C60" s="1">
+        <f>(C58+C59)/2</f>
+        <v>2.562918234616518</v>
+      </c>
+      <c r="D60" s="1">
+        <f>(D58+D59)/2</f>
+        <v>21.7441</v>
+      </c>
+      <c r="E60" s="1">
+        <f>(E58+E59)/2</f>
+        <v>168</v>
+      </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
@@ -1504,10 +1578,9 @@
         <v>4</v>
       </c>
       <c r="B61" s="1">
-        <v>23917.200000000001</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
-        <f>B61/1024/1024/1024/8*1000000</f>
         <v>2.7843285351991653</v>
       </c>
       <c r="D61" s="1">
@@ -1516,7 +1589,6 @@
       <c r="E61" s="1">
         <v>187</v>
       </c>
-      <c r="G61"/>
       <c r="H61"/>
       <c r="I61"/>
       <c r="J61"/>
@@ -1524,10 +1596,9 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
-        <v>23928.6</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <f>B62/1024/1024/1024/8*1000000</f>
         <v>2.7856556698679924</v>
       </c>
       <c r="D62" s="1">
@@ -1536,7 +1607,6 @@
       <c r="E62" s="1">
         <v>187</v>
       </c>
-      <c r="G62"/>
       <c r="H62"/>
       <c r="I62"/>
       <c r="J62"/>
@@ -1546,26 +1616,37 @@
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G63"/>
+      <c r="C63" s="1">
+        <f>(C61+C62)/2</f>
+        <v>2.7849921025335789</v>
+      </c>
+      <c r="D63" s="1">
+        <f>(D61+D62)/2</f>
+        <v>21.746600000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <f>(E61+E62)/2</f>
+        <v>187</v>
+      </c>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G64"/>
@@ -1581,6 +1662,15 @@
       <c r="B65" s="1">
         <v>1</v>
       </c>
+      <c r="C65" s="1">
+        <v>2.47307896977687</v>
+      </c>
+      <c r="D65" s="1">
+        <v>21.313500000000001</v>
+      </c>
+      <c r="E65" s="1">
+        <v>161</v>
+      </c>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
@@ -1591,6 +1681,15 @@
       <c r="B66" s="1">
         <v>2</v>
       </c>
+      <c r="C66" s="1">
+        <v>2.510775426316775</v>
+      </c>
+      <c r="D66" s="1">
+        <v>21.313500000000001</v>
+      </c>
+      <c r="E66" s="1">
+        <v>161</v>
+      </c>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
@@ -1601,6 +1700,18 @@
       <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C67" s="1">
+        <f>(C65+C66)/2</f>
+        <v>2.4919271980468225</v>
+      </c>
+      <c r="D67" s="1">
+        <f>(D65+D66)/2</f>
+        <v>21.313500000000001</v>
+      </c>
+      <c r="E67" s="1">
+        <f>(E65+E66)/2</f>
+        <v>161</v>
+      </c>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
@@ -1608,19 +1719,19 @@
       <c r="K67"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G68"/>
@@ -1637,23 +1748,44 @@
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>2.5242391094433949</v>
+        <v>2.185689747515323</v>
       </c>
       <c r="D69" s="1">
-        <v>21.709199999999999</v>
+        <v>21.879200000000001</v>
       </c>
       <c r="E69" s="1">
-        <v>170.94200000000001</v>
+        <v>171</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>2</v>
       </c>
+      <c r="C70" s="1">
+        <v>2.2483728130302101</v>
+      </c>
+      <c r="D70" s="1">
+        <v>21.879200000000001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>171</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C71" s="1">
+        <f>(C69+C70)/2</f>
+        <v>2.2170312802727663</v>
+      </c>
+      <c r="D71" s="1">
+        <f>(D69+D70)/2</f>
+        <v>21.879200000000001</v>
+      </c>
+      <c r="E71" s="1">
+        <f>(E69+E70)/2</f>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
